--- a/test-data/garages.xlsx
+++ b/test-data/garages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\playwright-ddt-framework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4473C6-5509-4AF3-8215-010CCE212757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007AC80-F2AD-4342-9280-6DB45CA6DCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9930" yWindow="10690" windowWidth="19420" windowHeight="11500" xr2:uid="{4B3D6F45-7A48-4EC2-909B-72731C307B29}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
-    <t>carPark</t>
-  </si>
-  <si>
     <t>expectedPrice</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Long-Term Garage Parking - 1 Day - Correct Price</t>
+  </si>
+  <si>
+    <t>parkingLot</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,104 +475,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
